--- a/Week6/dictionary/c2021dep.new.xlsx
+++ b/Week6/dictionary/c2021dep.new.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10818"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10819"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidtorres/Code/NU/TIM7020/Week6/dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9496B2B-6500-E443-BDA1-5F430FE3FFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD66EFE5-FBA0-8E4C-B021-5879AC3CD382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21220" yWindow="500" windowWidth="26120" windowHeight="22700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,9 +73,6 @@
     <t>CIPCODE - 2020 Classification</t>
   </si>
   <si>
-    <t>cipcode</t>
-  </si>
-  <si>
     <t>PTOTAL</t>
   </si>
   <si>
@@ -425,6 +422,9 @@
   </si>
   <si>
     <t>post_masters_cert_complete_distance</t>
+  </si>
+  <si>
+    <t>cip_code</t>
   </si>
 </sst>
 </file>
@@ -791,7 +791,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -876,7 +876,7 @@
         <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -884,22 +884,22 @@
         <v>33345</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -907,22 +907,22 @@
         <v>33350</v>
       </c>
       <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -930,22 +930,22 @@
         <v>33351</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>25</v>
-      </c>
-      <c r="H6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -953,22 +953,22 @@
         <v>33355</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>28</v>
-      </c>
-      <c r="H7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -976,22 +976,22 @@
         <v>33360</v>
       </c>
       <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>31</v>
-      </c>
-      <c r="H8" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -999,22 +999,22 @@
         <v>33361</v>
       </c>
       <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
         <v>33</v>
       </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>34</v>
-      </c>
-      <c r="H9" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1022,22 +1022,22 @@
         <v>33365</v>
       </c>
       <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
         <v>36</v>
       </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>37</v>
-      </c>
-      <c r="H10" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1045,22 +1045,22 @@
         <v>33370</v>
       </c>
       <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
         <v>39</v>
       </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>40</v>
-      </c>
-      <c r="H11" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1068,22 +1068,22 @@
         <v>33371</v>
       </c>
       <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
         <v>42</v>
       </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>43</v>
-      </c>
-      <c r="H12" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1091,22 +1091,22 @@
         <v>33375</v>
       </c>
       <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
         <v>45</v>
       </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1114,22 +1114,22 @@
         <v>33380</v>
       </c>
       <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
         <v>48</v>
       </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>49</v>
-      </c>
-      <c r="H14" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1137,22 +1137,22 @@
         <v>33381</v>
       </c>
       <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
         <v>51</v>
       </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>52</v>
-      </c>
-      <c r="H15" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1160,22 +1160,22 @@
         <v>33385</v>
       </c>
       <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
         <v>54</v>
       </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>55</v>
-      </c>
-      <c r="H16" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1183,22 +1183,22 @@
         <v>33390</v>
       </c>
       <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
         <v>57</v>
       </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>58</v>
-      </c>
-      <c r="H17" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1206,22 +1206,22 @@
         <v>33391</v>
       </c>
       <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
         <v>60</v>
       </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>61</v>
-      </c>
-      <c r="H18" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1229,22 +1229,22 @@
         <v>33395</v>
       </c>
       <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
         <v>63</v>
       </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>64</v>
-      </c>
-      <c r="H19" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1252,22 +1252,22 @@
         <v>33400</v>
       </c>
       <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
         <v>66</v>
       </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20">
-        <v>5</v>
-      </c>
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>67</v>
-      </c>
-      <c r="H20" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1275,22 +1275,22 @@
         <v>33401</v>
       </c>
       <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
         <v>69</v>
       </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21">
-        <v>5</v>
-      </c>
-      <c r="E21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>70</v>
-      </c>
-      <c r="H21" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1298,22 +1298,22 @@
         <v>33405</v>
       </c>
       <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
         <v>72</v>
       </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22">
-        <v>5</v>
-      </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>73</v>
-      </c>
-      <c r="H22" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1321,22 +1321,22 @@
         <v>33410</v>
       </c>
       <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
         <v>75</v>
       </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23">
-        <v>5</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>76</v>
-      </c>
-      <c r="H23" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1344,22 +1344,22 @@
         <v>33411</v>
       </c>
       <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
         <v>78</v>
       </c>
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24">
-        <v>5</v>
-      </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>79</v>
-      </c>
-      <c r="H24" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1367,22 +1367,22 @@
         <v>33465</v>
       </c>
       <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
         <v>81</v>
       </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25">
-        <v>5</v>
-      </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>82</v>
-      </c>
-      <c r="H25" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1390,22 +1390,22 @@
         <v>33470</v>
       </c>
       <c r="B26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
         <v>84</v>
       </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26">
-        <v>5</v>
-      </c>
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>85</v>
-      </c>
-      <c r="H26" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1413,22 +1413,22 @@
         <v>33471</v>
       </c>
       <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
         <v>87</v>
       </c>
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27">
-        <v>5</v>
-      </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>88</v>
-      </c>
-      <c r="H27" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1436,22 +1436,22 @@
         <v>33475</v>
       </c>
       <c r="B28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
         <v>90</v>
       </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28">
-        <v>5</v>
-      </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>91</v>
-      </c>
-      <c r="H28" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1459,22 +1459,22 @@
         <v>33480</v>
       </c>
       <c r="B29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
         <v>93</v>
       </c>
-      <c r="C29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29">
-        <v>5</v>
-      </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>94</v>
-      </c>
-      <c r="H29" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1482,22 +1482,22 @@
         <v>33481</v>
       </c>
       <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
         <v>96</v>
       </c>
-      <c r="C30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30">
-        <v>5</v>
-      </c>
-      <c r="E30" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>97</v>
-      </c>
-      <c r="H30" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1505,22 +1505,22 @@
         <v>33425</v>
       </c>
       <c r="B31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" t="s">
         <v>99</v>
       </c>
-      <c r="C31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31">
-        <v>5</v>
-      </c>
-      <c r="E31" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>100</v>
-      </c>
-      <c r="H31" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -1528,22 +1528,22 @@
         <v>33430</v>
       </c>
       <c r="B32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
         <v>102</v>
       </c>
-      <c r="C32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32">
-        <v>5</v>
-      </c>
-      <c r="E32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>103</v>
-      </c>
-      <c r="H32" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -1551,22 +1551,22 @@
         <v>33431</v>
       </c>
       <c r="B33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" t="s">
         <v>105</v>
       </c>
-      <c r="C33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33">
-        <v>5</v>
-      </c>
-      <c r="E33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>106</v>
-      </c>
-      <c r="H33" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -1574,22 +1574,22 @@
         <v>33435</v>
       </c>
       <c r="B34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" t="s">
         <v>108</v>
       </c>
-      <c r="C34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34">
-        <v>5</v>
-      </c>
-      <c r="E34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>109</v>
-      </c>
-      <c r="H34" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -1597,22 +1597,22 @@
         <v>33440</v>
       </c>
       <c r="B35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
         <v>111</v>
       </c>
-      <c r="C35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35">
-        <v>5</v>
-      </c>
-      <c r="E35" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>112</v>
-      </c>
-      <c r="H35" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -1620,22 +1620,22 @@
         <v>33441</v>
       </c>
       <c r="B36" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" t="s">
         <v>114</v>
       </c>
-      <c r="C36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36">
-        <v>5</v>
-      </c>
-      <c r="E36" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>115</v>
-      </c>
-      <c r="H36" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -1643,22 +1643,22 @@
         <v>33445</v>
       </c>
       <c r="B37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" t="s">
         <v>117</v>
       </c>
-      <c r="C37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37">
-        <v>5</v>
-      </c>
-      <c r="E37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>118</v>
-      </c>
-      <c r="H37" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -1666,22 +1666,22 @@
         <v>33450</v>
       </c>
       <c r="B38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" t="s">
         <v>120</v>
       </c>
-      <c r="C38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38">
-        <v>5</v>
-      </c>
-      <c r="E38" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>121</v>
-      </c>
-      <c r="H38" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -1689,22 +1689,22 @@
         <v>33451</v>
       </c>
       <c r="B39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" t="s">
         <v>123</v>
       </c>
-      <c r="C39" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39">
-        <v>5</v>
-      </c>
-      <c r="E39" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>124</v>
-      </c>
-      <c r="H39" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -1712,22 +1712,22 @@
         <v>33455</v>
       </c>
       <c r="B40" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" t="s">
         <v>126</v>
       </c>
-      <c r="C40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40">
-        <v>5</v>
-      </c>
-      <c r="E40" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>127</v>
-      </c>
-      <c r="H40" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -1735,22 +1735,22 @@
         <v>33460</v>
       </c>
       <c r="B41" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" t="s">
         <v>129</v>
       </c>
-      <c r="C41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41">
-        <v>5</v>
-      </c>
-      <c r="E41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>130</v>
-      </c>
-      <c r="H41" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -1758,22 +1758,22 @@
         <v>33461</v>
       </c>
       <c r="B42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" t="s">
         <v>132</v>
       </c>
-      <c r="C42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42">
-        <v>5</v>
-      </c>
-      <c r="E42" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>133</v>
-      </c>
-      <c r="H42" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
